--- a/Data/Input/With_observations/Avala/Racunanje_pribliznih_koordinata_Avala.xlsx
+++ b/Data/Input/With_observations/Avala/Racunanje_pribliznih_koordinata_Avala.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Avala\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="75">
   <si>
     <t>From</t>
   </si>
@@ -195,13 +196,89 @@
   </si>
   <si>
     <t>Vs5-s6</t>
+  </si>
+  <si>
+    <r>
+      <t>Ra~unanje ta~aka presecanjem pravaca napred od  A i B ka nepoznatoj T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="YuTimes"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>(A)</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>(B)</t>
+  </si>
+  <si>
+    <t>B:</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Fi Alfa (step-min-sek)</t>
+  </si>
+  <si>
+    <t>(radijani)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T(kont)</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>Fi Befa (step-min-sek)</t>
+  </si>
+  <si>
+    <t>Ra~unanje direkcionog ugla i rastojanja</t>
+  </si>
+  <si>
+    <t>Ni A-B</t>
+  </si>
+  <si>
+    <t>Ni  A-B</t>
+  </si>
+  <si>
+    <t>Du` A-B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###,###.000"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="###,###.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="###,###"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +294,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color indexed="13"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color indexed="13"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="32"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="32"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="YuTimes"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="YuTimes"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +389,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -246,11 +428,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,8 +658,131 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,15 +1061,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="26" max="28" width="11.21875" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" customWidth="1"/>
+    <col min="30" max="31" width="11.21875" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +1107,29 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="20.399999999999999">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -616,8 +1165,39 @@
         <f>SIN(RADIANS(J2))*F2</f>
         <v>17.672877158716485</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>61926.45</v>
+      </c>
+      <c r="Q2">
+        <v>50239.19</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -653,8 +1233,37 @@
         <f>SIN(RADIANS(J3))*F3</f>
         <v>60.88551831712018</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>61970.93</v>
+      </c>
+      <c r="Q3">
+        <v>50246.83</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -690,8 +1299,49 @@
         <f t="shared" ref="K4:K66" si="1">SIN(RADIANS(J4))*F4</f>
         <v>55.956170419824275</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>62007.96</v>
+      </c>
+      <c r="Q4">
+        <v>50295.18</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -727,8 +1377,58 @@
         <f t="shared" si="1"/>
         <v>37.924610861719614</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>61990.13</v>
+      </c>
+      <c r="Q5">
+        <v>50336.08</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="18">
+        <f>Q6</f>
+        <v>50333.85</v>
+      </c>
+      <c r="AC5" s="18">
+        <f>P6</f>
+        <v>61923.74</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="17" t="str">
+        <f>AA6</f>
+        <v>S2</v>
+      </c>
+      <c r="AF5" s="18">
+        <f>AB6</f>
+        <v>50294.62</v>
+      </c>
+      <c r="AG5" s="18">
+        <f>AC6</f>
+        <v>61902.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -761,8 +1461,58 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>61923.74</v>
+      </c>
+      <c r="Q6">
+        <v>50333.85</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="18">
+        <f>Q7</f>
+        <v>50294.62</v>
+      </c>
+      <c r="AC6" s="18">
+        <f>P7</f>
+        <v>61902.91</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE6" s="17" t="str">
+        <f>AA5</f>
+        <v>S1</v>
+      </c>
+      <c r="AF6" s="18">
+        <f>AB5</f>
+        <v>50333.85</v>
+      </c>
+      <c r="AG6" s="18">
+        <f>AC5</f>
+        <v>61923.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -795,8 +1545,53 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f>C7+D7/60+E7/3600</f>
+        <v>92.296597222222232</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>61902.91</v>
+      </c>
+      <c r="Q7">
+        <v>50294.62</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="43">
+        <f>AB6-AB5</f>
+        <v>-39.229999999995925</v>
+      </c>
+      <c r="AC7" s="43">
+        <f>AC6-AC5</f>
+        <v>-20.82999999999447</v>
+      </c>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="43">
+        <f>AF6-AF5</f>
+        <v>39.229999999995925</v>
+      </c>
+      <c r="AG7" s="43">
+        <f>AG6-AG5</f>
+        <v>20.82999999999447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" thickBot="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -829,8 +1624,57 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>C8+D8/60+E8/3600</f>
+        <v>92.533263888888897</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8">
+        <v>61953.88</v>
+      </c>
+      <c r="Q8">
+        <v>50288.29</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="45">
+        <f>ATAN(AB7/AC7)*180/PI()</f>
+        <v>62.032985317211576</v>
+      </c>
+      <c r="AC8" s="46">
+        <f>IF(AC7&lt;0,AB8+180,AB8)</f>
+        <v>242.03298531721157</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="45">
+        <f>ATAN(AF7/AG7)*180/PI()</f>
+        <v>62.032985317211576</v>
+      </c>
+      <c r="AG8" s="46">
+        <f>IF(AG7&lt;0,AF8+180,AF8)</f>
+        <v>62.032985317211576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15" thickBot="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -863,8 +1707,47 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>C9+D9/60+E9/3600</f>
+        <v>92.595347222222202</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="47">
+        <f>INT(AC9)</f>
+        <v>242</v>
+      </c>
+      <c r="AA9" s="48">
+        <f>INT((AC9-Z9)*60)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="49">
+        <f>((AC9-Z9)*60-AA9)*60</f>
+        <v>58.747141961648595</v>
+      </c>
+      <c r="AC9" s="50">
+        <f>IF(AC8&lt;0,AC8+360,AC8)</f>
+        <v>242.03298531721157</v>
+      </c>
+      <c r="AD9" s="47">
+        <f>INT(AG9)</f>
+        <v>62</v>
+      </c>
+      <c r="AE9" s="48">
+        <f>INT((AG9-AD9)*60)</f>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="49">
+        <f>((AG9-AD9)*60-AE9)*60</f>
+        <v>58.747141961674174</v>
+      </c>
+      <c r="AG9" s="50">
+        <f>IF(AG8&lt;0,AG8+360,AG8)</f>
+        <v>62.032985317211576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15" thickBot="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -900,8 +1783,29 @@
         <f t="shared" si="1"/>
         <v>24.142649666697206</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="51">
+        <f>SQRT(AB7^2+AC7^2)</f>
+        <v>44.417134081336783</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="51">
+        <f>SQRT(AF7^2+AG7^2)</f>
+        <v>44.417134081336783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15" thickBot="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -937,8 +1841,43 @@
         <f t="shared" si="1"/>
         <v>31.630297723762492</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z11" s="47">
+        <f>INT(AC11)</f>
+        <v>168</v>
+      </c>
+      <c r="AA11" s="48">
+        <f>INT((AC11-Z11)*60)</f>
+        <v>7</v>
+      </c>
+      <c r="AB11" s="49">
+        <f>((AC11-Z11)*60-AA11)*60</f>
+        <v>4.9971419617963875</v>
+      </c>
+      <c r="AC11" s="46">
+        <f>AC9 -(L13-L7)</f>
+        <v>168.11805476165605</v>
+      </c>
+      <c r="AD11" s="47">
+        <f>INT(AG11)</f>
+        <v>361</v>
+      </c>
+      <c r="AE11" s="48">
+        <f>INT((AG11-AD11)*60)</f>
+        <v>25</v>
+      </c>
+      <c r="AF11" s="49">
+        <f>((AG11-AD11)*60-AE11)*60</f>
+        <v>55.913808628315564</v>
+      </c>
+      <c r="AG11" s="46">
+        <f>AG9+(L26-L18)</f>
+        <v>361.43219828017453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -975,7 +1914,7 @@
         <v>92.679138199594419</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="20.399999999999999">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1011,8 +1950,22 @@
         <f t="shared" si="1"/>
         <v>44.636638714288502</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>C13+D13/60+E13/3600</f>
+        <v>166.21152777777775</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +2001,16 @@
         <f t="shared" si="1"/>
         <v>14.869980679697953</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1085,8 +2046,28 @@
         <f t="shared" si="1"/>
         <v>57.281598882041088</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1122,8 +2103,37 @@
         <f t="shared" si="1"/>
         <v>40.628578251047564</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="18">
+        <f>AB6</f>
+        <v>50294.62</v>
+      </c>
+      <c r="AC16" s="18">
+        <f>AC6</f>
+        <v>61902.91</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="17" t="str">
+        <f>AA17</f>
+        <v>S3</v>
+      </c>
+      <c r="AF16" s="18">
+        <f>AB17</f>
+        <v>50239.19</v>
+      </c>
+      <c r="AG16" s="18">
+        <f>AC17</f>
+        <v>61926.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1159,8 +2169,37 @@
         <f t="shared" si="1"/>
         <v>31.520164625962554</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="18">
+        <f>Q2</f>
+        <v>50239.19</v>
+      </c>
+      <c r="AC17" s="18">
+        <f>P2</f>
+        <v>61926.45</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE17" s="17" t="str">
+        <f>AA16</f>
+        <v>S2</v>
+      </c>
+      <c r="AF17" s="18">
+        <f>AB16</f>
+        <v>50294.62</v>
+      </c>
+      <c r="AG17" s="18">
+        <f>AC16</f>
+        <v>61902.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1193,8 +2232,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>C18+D18/60+E18/3600</f>
+        <v>46.813333333333333</v>
+      </c>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="43">
+        <f>AB17-AB16</f>
+        <v>-55.430000000000291</v>
+      </c>
+      <c r="AC18" s="43">
+        <f>AC17-AC16</f>
+        <v>23.539999999993597</v>
+      </c>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="43">
+        <f>AF17-AF16</f>
+        <v>55.430000000000291</v>
+      </c>
+      <c r="AG18" s="43">
+        <f>AG17-AG16</f>
+        <v>-23.539999999993597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1227,8 +2290,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>C19+D19/60+E19/3600</f>
+        <v>46.825902777777777</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45">
+        <f>ATAN(AB18/AC18)*180/PI()</f>
+        <v>-66.990050252233274</v>
+      </c>
+      <c r="AC19" s="46">
+        <f>IF(AC18&lt;0,AB19+180,AB19)</f>
+        <v>-66.990050252233274</v>
+      </c>
+      <c r="AD19" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="45">
+        <f>ATAN(AF18/AG18)*180/PI()</f>
+        <v>-66.990050252233274</v>
+      </c>
+      <c r="AG19" s="46">
+        <f>IF(AG18&lt;0,AF19+180,AF19)</f>
+        <v>113.00994974776673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1261,8 +2352,44 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f>C20+D20/60+E20/3600</f>
+        <v>47.067569444444445</v>
+      </c>
+      <c r="Z20" s="47">
+        <f>INT(AC20)</f>
+        <v>293</v>
+      </c>
+      <c r="AA20" s="48">
+        <f>INT((AC20-Z20)*60)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="49">
+        <f>((AC20-Z20)*60-AA20)*60</f>
+        <v>35.819091960161131</v>
+      </c>
+      <c r="AC20" s="50">
+        <f>IF(AC19&lt;0,AC19+360,AC19)</f>
+        <v>293.00994974776671</v>
+      </c>
+      <c r="AD20" s="47">
+        <f>INT(AG20)</f>
+        <v>113</v>
+      </c>
+      <c r="AE20" s="48">
+        <f>INT((AG20-AD20)*60)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="49">
+        <f>((AG20-AD20)*60-AE20)*60</f>
+        <v>35.81909196021229</v>
+      </c>
+      <c r="AG20" s="50">
+        <f>IF(AG19&lt;0,AG19+360,AG19)</f>
+        <v>113.00994974776673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1298,8 +2425,26 @@
         <f t="shared" si="1"/>
         <v>49.838248654093292</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="51">
+        <f>SQRT(AB18^2+AC18^2)</f>
+        <v>60.221395699532991</v>
+      </c>
+      <c r="AD21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="51">
+        <f>SQRT(AF18^2+AG18^2)</f>
+        <v>60.221395699532991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1335,8 +2480,24 @@
         <f t="shared" si="1"/>
         <v>96.581746566082856</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z22" s="47">
+        <f>INT(AC22)</f>
+        <v>344</v>
+      </c>
+      <c r="AA22" s="48">
+        <f>INT((AC22-Z22)*60)</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="49">
+        <f>((AC22-Z22)*60-AA22)*60</f>
+        <v>23.652425293425949</v>
+      </c>
+      <c r="AC22" s="46">
+        <f>AC20+(L24-L18)</f>
+        <v>344.00657011813706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +2534,7 @@
         <v>31.144985867039349</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1409,8 +2570,12 @@
         <f t="shared" si="1"/>
         <v>66.437309906223305</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f>C24+D24/60+E24/3600</f>
+        <v>97.809953703703698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="20.399999999999999">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1446,8 +2611,18 @@
         <f t="shared" si="1"/>
         <v>33.645699018644144</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+    </row>
+    <row r="26" spans="1:33" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1483,8 +2658,20 @@
         <f t="shared" si="1"/>
         <v>44.634399872380556</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f>C26+D26/60+E26/3600</f>
+        <v>346.2125462962963</v>
+      </c>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+    </row>
+    <row r="27" spans="1:33" ht="15" thickBot="1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1520,8 +2707,30 @@
         <f t="shared" si="1"/>
         <v>66.437864750162646</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f>C27+D27/60+E27/3600</f>
+        <v>63.398240740740739</v>
+      </c>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG27" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1557,8 +2766,29 @@
         <f t="shared" si="1"/>
         <v>35.331038586511525</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA28" s="17" t="str">
+        <f>AA5</f>
+        <v>S1</v>
+      </c>
+      <c r="AB28" s="18">
+        <f t="shared" ref="AB28:AC29" si="2">AB5</f>
+        <v>50333.85</v>
+      </c>
+      <c r="AC28" s="18">
+        <f t="shared" si="2"/>
+        <v>61923.74</v>
+      </c>
+      <c r="AD28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+    </row>
+    <row r="29" spans="1:33" ht="15" thickBot="1">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1594,8 +2824,30 @@
         <f t="shared" si="1"/>
         <v>63.057272943677638</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="17" t="str">
+        <f>AA6</f>
+        <v>S2</v>
+      </c>
+      <c r="AB29" s="18">
+        <f t="shared" si="2"/>
+        <v>50294.62</v>
+      </c>
+      <c r="AC29" s="18">
+        <f t="shared" si="2"/>
+        <v>61902.91</v>
+      </c>
+      <c r="AD29" s="19">
+        <f>(AB29-AB28)-(AC29-AC28)*TAN(AC34)</f>
+        <v>-38.709212859579083</v>
+      </c>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+    </row>
+    <row r="30" spans="1:33" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1635,29 +2887,26 @@
         <f>C30+D30/60+E30/3600</f>
         <v>89.999305555555551</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF30" s="23">
+        <f>AB28+(AD29/AD33)*TAN(AC32)</f>
+        <v>50299.251983857532</v>
+      </c>
+      <c r="AG30" s="23">
+        <f>AC28+AD29/AD33</f>
+        <v>62088.176140932643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="15" thickBot="1">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1693,29 +2942,31 @@
         <f t="shared" si="1"/>
         <v>61.123829022881864</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31">
-        <v>61926.45</v>
-      </c>
-      <c r="Q31">
-        <v>50239.19</v>
-      </c>
-      <c r="R31" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" t="b">
-        <v>1</v>
-      </c>
-      <c r="T31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z31" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD31" s="19">
+        <f>(AB29-AB28)-(AC29-AC28)*TAN(AC32)</f>
+        <v>-43.612714603730957</v>
+      </c>
+      <c r="AE31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF31" s="28">
+        <f>AB29+(AD31/AD33)*TAN(AC34)</f>
+        <v>50299.251983857532</v>
+      </c>
+      <c r="AG31" s="29">
+        <f>AC29+AD31/AD33</f>
+        <v>62088.176140932643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="15" thickBot="1">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1748,29 +2999,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32">
-        <v>61970.93</v>
-      </c>
-      <c r="Q32">
-        <v>50246.83</v>
-      </c>
-      <c r="R32" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f>C32+D32/60+E32/3600</f>
+        <v>121.65930555555555</v>
+      </c>
+      <c r="Z32" s="42">
+        <f>Z11</f>
+        <v>168</v>
+      </c>
+      <c r="AA32" s="42">
+        <f t="shared" ref="AA32:AB32" si="3">AA11</f>
+        <v>7</v>
+      </c>
+      <c r="AB32" s="42">
+        <f t="shared" si="3"/>
+        <v>4.9971419617963875</v>
+      </c>
+      <c r="AC32" s="32">
+        <f t="array" ref="AC32">Z32*PI()/180+AA32*PI()/(180*60)+AB32*PI()/(180*3600)</f>
+        <v>2.9342135876390292</v>
+      </c>
+      <c r="AD32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+    </row>
+    <row r="33" spans="1:33" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1803,29 +3059,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N33">
-        <v>3</v>
-      </c>
-      <c r="O33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33">
-        <v>62007.96</v>
-      </c>
-      <c r="Q33">
-        <v>50295.18</v>
-      </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-      <c r="T33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f>C33+D33/60+E33/3600</f>
+        <v>121.90923611111108</v>
+      </c>
+      <c r="Z33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="19">
+        <f>TAN(AC32)-TAN(AC34)</f>
+        <v>-0.23540574863913449</v>
+      </c>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+    </row>
+    <row r="34" spans="1:33" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1858,29 +3110,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N34">
-        <v>4</v>
-      </c>
-      <c r="O34" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34">
-        <v>61990.13</v>
-      </c>
-      <c r="Q34">
-        <v>50336.08</v>
-      </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-      <c r="T34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f>C34+D34/60+E34/3600</f>
+        <v>121.95256944444444</v>
+      </c>
+      <c r="Z34" s="42">
+        <f>AD11</f>
+        <v>361</v>
+      </c>
+      <c r="AA34" s="42">
+        <f t="shared" ref="AA34:AB34" si="4">AE11</f>
+        <v>25</v>
+      </c>
+      <c r="AB34" s="42">
+        <f t="shared" si="4"/>
+        <v>55.913808628315564</v>
+      </c>
+      <c r="AC34" s="38">
+        <f t="array" ref="AC34">Z34*PI()/180+AA34*PI()/(180*60)+AB34*PI()/(180*3600)</f>
+        <v>6.3081818827100316</v>
+      </c>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1916,29 +3171,8 @@
         <f t="shared" si="1"/>
         <v>56.339146263174172</v>
       </c>
-      <c r="N35">
-        <v>5</v>
-      </c>
-      <c r="O35" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35">
-        <v>61923.74</v>
-      </c>
-      <c r="Q35">
-        <v>50333.85</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" t="b">
-        <v>0</v>
-      </c>
-      <c r="T35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:33" ht="20.399999999999999">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1974,29 +3208,18 @@
         <f t="shared" si="1"/>
         <v>53.280312262345085</v>
       </c>
-      <c r="N36">
-        <v>6</v>
-      </c>
-      <c r="O36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36">
-        <v>61902.91</v>
-      </c>
-      <c r="Q36">
-        <v>50294.62</v>
-      </c>
-      <c r="R36" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" t="b">
-        <v>0</v>
-      </c>
-      <c r="T36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+    </row>
+    <row r="37" spans="1:33" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -2036,29 +3259,16 @@
         <f>C37+D37/60+E37/3600</f>
         <v>161.27537037037035</v>
       </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37">
-        <v>61953.88</v>
-      </c>
-      <c r="Q37">
-        <v>50288.29</v>
-      </c>
-      <c r="R37" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" t="b">
-        <v>0</v>
-      </c>
-      <c r="T37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+    </row>
+    <row r="38" spans="1:33" ht="15" thickBot="1">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2094,8 +3304,26 @@
         <f t="shared" si="1"/>
         <v>66.316692566334353</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG38" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2131,8 +3359,28 @@
         <f t="shared" si="1"/>
         <v>49.16423853098339</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB39" s="18">
+        <f>AB16</f>
+        <v>50294.62</v>
+      </c>
+      <c r="AC39" s="18">
+        <f>AC16</f>
+        <v>61902.91</v>
+      </c>
+      <c r="AD39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+    </row>
+    <row r="40" spans="1:33" ht="15" thickBot="1">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2172,21 +3420,21 @@
         <v>47</v>
       </c>
       <c r="O40">
-        <f>MOD(DEGREES(ATAN2(Q35-Q31,P35-P31)),360)</f>
+        <f>MOD(DEGREES(ATAN2(Q6-Q2,P6-P2)),360)</f>
         <v>358.36013983959964</v>
       </c>
       <c r="Q40" t="s">
         <v>52</v>
       </c>
       <c r="R40">
-        <f>MOD(DEGREES(ATAN2(Q36-Q32,P36-P32)),360)</f>
+        <f>MOD(DEGREES(ATAN2(Q7-Q3,P7-P3)),360)</f>
         <v>305.09139685128866</v>
       </c>
       <c r="T40" t="s">
         <v>54</v>
       </c>
       <c r="U40">
-        <f>MOD(DEGREES(ATAN2(Q33-Q34,P33-P34)),360)</f>
+        <f>MOD(DEGREES(ATAN2(Q4-Q5,P4-P5)),360)</f>
         <v>156.44562343940242</v>
       </c>
       <c r="W40" t="s">
@@ -2196,8 +3444,29 @@
         <f>U40+180</f>
         <v>336.44562343940242</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB40" s="18">
+        <f>AB17</f>
+        <v>50239.19</v>
+      </c>
+      <c r="AC40" s="18">
+        <f>AC17</f>
+        <v>61926.45</v>
+      </c>
+      <c r="AD40" s="19">
+        <f>(AB40-AB39)-(AC40-AC39)*TAN(AC45)</f>
+        <v>136.80411449145657</v>
+      </c>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+    </row>
+    <row r="41" spans="1:33" ht="15" thickBot="1">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +3530,26 @@
         <f>L51-L50</f>
         <v>253.67074074074077</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE41" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF41" s="22">
+        <f>AB39+(AD40/AD44)*TAN(AC43)</f>
+        <v>50294.95279313736</v>
+      </c>
+      <c r="AG41" s="23">
+        <f>AC39+AD40/AD44</f>
+        <v>61919.62157543069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="15" thickBot="1">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +3617,31 @@
         <f>X40+X41-360</f>
         <v>230.11636418014314</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z42" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD42" s="19">
+        <f>(AB40-AB39)-(AC40-AC39)*TAN(AC43)</f>
+        <v>-55.898773903807516</v>
+      </c>
+      <c r="AE42" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF42" s="28">
+        <f>AB40+(AD42/AD44)*TAN(AC45)</f>
+        <v>50294.95279313736</v>
+      </c>
+      <c r="AG42" s="29">
+        <f>AC40+AD42/AD44</f>
+        <v>61919.62157543069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="15" thickBot="1">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2371,48 +3681,68 @@
         <v>50</v>
       </c>
       <c r="N43" s="4">
-        <f>Q31+K37*SIN(RADIANS(O42))</f>
+        <f>Q2+K37*SIN(RADIANS(O42))</f>
         <v>50308.43516945633</v>
       </c>
       <c r="O43" s="4">
-        <f>P31+K37*COS(RADIANS(P42))</f>
+        <f>P2+K37*COS(RADIANS(P42))</f>
         <v>62000.311351655233</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Q43" s="4">
-        <f>Q32+K46*SIN(RADIANS(R42))</f>
+        <f>Q3+K46*SIN(RADIANS(R42))</f>
         <v>50270.150847964796</v>
       </c>
       <c r="R43" s="4">
-        <f>P32+K46*COS(RADIANS(R42))</f>
+        <f>P3+K46*COS(RADIANS(R42))</f>
         <v>61999.24308870978</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="T43" s="4">
-        <f>Q34+K55*SIN(RADIANS(U42))</f>
+        <f>Q5+K55*SIN(RADIANS(U42))</f>
         <v>50336.010908609773</v>
       </c>
       <c r="U43" s="4">
-        <f>P34+K55*COS(RADIANS(U42))</f>
+        <f>P5+K55*COS(RADIANS(U42))</f>
         <v>61933.632745196926</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="W43" s="4">
-        <f>Q33+K51*SIN(RADIANS(X42))</f>
+        <f>Q4+K51*SIN(RADIANS(X42))</f>
         <v>50277.077057112569</v>
       </c>
       <c r="X43" s="4">
-        <f>P33+K51*COS(RADIANS(X42))</f>
+        <f>P4+K51*COS(RADIANS(X42))</f>
         <v>61992.832373229103</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="30">
+        <v>181</v>
+      </c>
+      <c r="AA43" s="30">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC43" s="32">
+        <f t="array" ref="AC43">Z43*PI()/180+AA43*PI()/(180*60)+AB43*PI()/(180*3600)</f>
+        <v>3.1615039514729619</v>
+      </c>
+      <c r="AD43" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+    </row>
+    <row r="44" spans="1:33" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2448,8 +3778,21 @@
         <f t="shared" si="1"/>
         <v>34.836417406612149</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z44" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="19">
+        <f>TAN(AC43)-TAN(AC45)</f>
+        <v>8.1861889717636576</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+    </row>
+    <row r="45" spans="1:33" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2485,8 +3828,25 @@
         <f t="shared" si="1"/>
         <v>9.7297933966857677</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z45" s="30">
+        <v>276</v>
+      </c>
+      <c r="AA45" s="36">
+        <v>58</v>
+      </c>
+      <c r="AB45" s="37">
+        <v>53</v>
+      </c>
+      <c r="AC45" s="38">
+        <f t="array" ref="AC45">Z45*PI()/180+AA45*PI()/(180*60)+AB45*PI()/(180*3600)</f>
+        <v>4.8342372028579499</v>
+      </c>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +3895,7 @@
         <v>61999.777220182506</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2580,7 +3940,7 @@
         <v>61963.232559213015</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2617,7 +3977,7 @@
         <v>42.480422295718093</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2654,7 +4014,7 @@
         <v>43.413778987615245</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2706,7 +4066,7 @@
         <v>50273.613952538682</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -2747,7 +4107,7 @@
         <v>343.67120370370372</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +4144,7 @@
         <v>23.676205943959882</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +4185,7 @@
         <v>90.000138888888898</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2862,7 +4222,7 @@
         <v>3.5417583176190912</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2903,7 +4263,7 @@
         <v>113.62458333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2940,7 +4300,7 @@
         <v>43.884254298772248</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2977,7 +4337,7 @@
         <v>17.91524709796407</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +4374,7 @@
         <v>13.309194471889375</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3048,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3116,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3187,7 +4547,7 @@
         <v>50.793152542258788</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +4584,7 @@
         <v>60.884797912552266</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +4621,7 @@
         <v>43.529226339738372</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
         <v>30</v>
       </c>
@@ -3298,7 +4658,7 @@
         <v>36.681789356796969</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
         <v>30</v>
       </c>
@@ -3327,15 +4687,15 @@
         <v>4.4999999999924967</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J68" si="2">G67+H67/60+I67/3600</f>
+        <f t="shared" ref="J67:J68" si="5">G67+H67/60+I67/3600</f>
         <v>97.017916666666665</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K69" si="3">SIN(RADIANS(J67))*F67</f>
+        <f t="shared" ref="K67:K69" si="6">SIN(RADIANS(J67))*F67</f>
         <v>73.861452404191525</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
         <v>30</v>
       </c>
@@ -3364,7 +4724,7 @@
         <v>21.16666666669289</v>
       </c>
       <c r="J68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>98.422546296296304</v>
       </c>
       <c r="K68">
@@ -3372,7 +4732,7 @@
         <v>56.498012468677423</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
         <v>30</v>
       </c>
@@ -3405,12 +4765,224 @@
         <v>97.397129629629632</v>
       </c>
       <c r="K69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.592010424331168</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="Z36:AG36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>61926.45</v>
+      </c>
+      <c r="F4">
+        <v>50239.19</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>61970.93</v>
+      </c>
+      <c r="F5">
+        <v>50246.83</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>62007.96</v>
+      </c>
+      <c r="F6">
+        <v>50295.18</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>61990.13</v>
+      </c>
+      <c r="F7">
+        <v>50336.08</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>61923.74</v>
+      </c>
+      <c r="F8">
+        <v>50333.85</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>61902.91</v>
+      </c>
+      <c r="F9">
+        <v>50294.62</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>61953.88</v>
+      </c>
+      <c r="F10">
+        <v>50288.29</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>